--- a/Table_raw/LEBA_short_structure.xlsx
+++ b/Table_raw/LEBA_short_structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://monashuni-my.sharepoint.com/personal/mushfiqul_anwarsiraji_monash_edu/Documents/My papers/LEBA Common workplace/leba-manuscript/Table_raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://monashuni-my.sharepoint.com/personal/mushfiqul_anwarsiraji_monash_edu/Documents/My papers/LEBA Common workplace/Instrument_distribution/instrument/Table_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E445072E-78FA-CF4B-8FED-745274677789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6309DAD-2C71-604E-9117-378890B9A4DD}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E445072E-78FA-CF4B-8FED-745274677789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED3D3AD-DFD3-BE48-9FDF-F78ACC83368D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B9A6AEDB-202A-2D42-AF11-5FAED34A515A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20140" xr2:uid="{B9A6AEDB-202A-2D42-AF11-5FAED34A515A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <t>12-14</t>
   </si>
   <si>
-    <t>15-14</t>
+    <t>15-18</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
